--- a/6/1/1/3/4/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/4/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9027,13 +9030,13 @@
         <v>184</v>
       </c>
       <c r="B173">
-        <v>7639</v>
+        <v>7637</v>
       </c>
       <c r="C173">
-        <v>7639</v>
+        <v>7637</v>
       </c>
       <c r="D173">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="E173">
         <v>1746</v>
@@ -9048,10 +9051,10 @@
         <v>3544</v>
       </c>
       <c r="I173">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J173">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K173">
         <v>103</v>
@@ -9074,16 +9077,16 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>6691</v>
+        <v>6685</v>
       </c>
       <c r="C174">
-        <v>6691</v>
+        <v>6685</v>
       </c>
       <c r="D174">
-        <v>4517</v>
+        <v>4515</v>
       </c>
       <c r="E174">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="F174">
         <v>849</v>
@@ -9092,13 +9095,13 @@
         <v>2197</v>
       </c>
       <c r="H174">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="I174">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J174">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K174">
         <v>56</v>
@@ -9121,13 +9124,13 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="C175">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="D175">
-        <v>4909</v>
+        <v>4908</v>
       </c>
       <c r="E175">
         <v>2083</v>
@@ -9136,13 +9139,13 @@
         <v>758</v>
       </c>
       <c r="G175">
-        <v>2134</v>
+        <v>2143</v>
       </c>
       <c r="H175">
-        <v>2746</v>
+        <v>2740</v>
       </c>
       <c r="I175">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J175">
         <v>295</v>
@@ -9160,6 +9163,53 @@
         <v>0</v>
       </c>
       <c r="O175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>6247</v>
+      </c>
+      <c r="C176">
+        <v>6247</v>
+      </c>
+      <c r="D176">
+        <v>4156</v>
+      </c>
+      <c r="E176">
+        <v>2092</v>
+      </c>
+      <c r="F176">
+        <v>638</v>
+      </c>
+      <c r="G176">
+        <v>1615</v>
+      </c>
+      <c r="H176">
+        <v>2703</v>
+      </c>
+      <c r="I176">
+        <v>632</v>
+      </c>
+      <c r="J176">
+        <v>299</v>
+      </c>
+      <c r="K176">
+        <v>113</v>
+      </c>
+      <c r="L176">
+        <v>248</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
         <v>0</v>
       </c>
     </row>

--- a/6/1/1/3/4/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/4/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9077,16 +9080,16 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>6685</v>
+        <v>6681</v>
       </c>
       <c r="C174">
-        <v>6685</v>
+        <v>6681</v>
       </c>
       <c r="D174">
         <v>4515</v>
       </c>
       <c r="E174">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="F174">
         <v>849</v>
@@ -9095,13 +9098,13 @@
         <v>2197</v>
       </c>
       <c r="H174">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="I174">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J174">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K174">
         <v>56</v>
@@ -9142,10 +9145,10 @@
         <v>2143</v>
       </c>
       <c r="H175">
-        <v>2740</v>
+        <v>2727</v>
       </c>
       <c r="I175">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="J175">
         <v>295</v>
@@ -9171,34 +9174,34 @@
         <v>187</v>
       </c>
       <c r="B176">
-        <v>6247</v>
+        <v>6246</v>
       </c>
       <c r="C176">
-        <v>6247</v>
+        <v>6246</v>
       </c>
       <c r="D176">
-        <v>4156</v>
+        <v>4159</v>
       </c>
       <c r="E176">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="F176">
         <v>638</v>
       </c>
       <c r="G176">
-        <v>1615</v>
+        <v>1622</v>
       </c>
       <c r="H176">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="I176">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="J176">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K176">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L176">
         <v>248</v>
@@ -9210,6 +9213,53 @@
         <v>0</v>
       </c>
       <c r="O176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>6918</v>
+      </c>
+      <c r="C177">
+        <v>6918</v>
+      </c>
+      <c r="D177">
+        <v>4680</v>
+      </c>
+      <c r="E177">
+        <v>2239</v>
+      </c>
+      <c r="F177">
+        <v>842</v>
+      </c>
+      <c r="G177">
+        <v>1813</v>
+      </c>
+      <c r="H177">
+        <v>2682</v>
+      </c>
+      <c r="I177">
+        <v>594</v>
+      </c>
+      <c r="J177">
+        <v>374</v>
+      </c>
+      <c r="K177">
+        <v>142</v>
+      </c>
+      <c r="L177">
+        <v>471</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
         <v>0</v>
       </c>
     </row>

--- a/6/1/1/3/4/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/4/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9148,7 +9151,7 @@
         <v>2727</v>
       </c>
       <c r="I175">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J175">
         <v>295</v>
@@ -9174,16 +9177,16 @@
         <v>187</v>
       </c>
       <c r="B176">
-        <v>6246</v>
+        <v>6241</v>
       </c>
       <c r="C176">
-        <v>6246</v>
+        <v>6241</v>
       </c>
       <c r="D176">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="E176">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="F176">
         <v>638</v>
@@ -9192,16 +9195,16 @@
         <v>1622</v>
       </c>
       <c r="H176">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="I176">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J176">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K176">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L176">
         <v>248</v>
@@ -9221,28 +9224,28 @@
         <v>188</v>
       </c>
       <c r="B177">
-        <v>6918</v>
+        <v>6914</v>
       </c>
       <c r="C177">
-        <v>6918</v>
+        <v>6914</v>
       </c>
       <c r="D177">
-        <v>4680</v>
+        <v>4676</v>
       </c>
       <c r="E177">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="F177">
         <v>842</v>
       </c>
       <c r="G177">
-        <v>1813</v>
+        <v>1829</v>
       </c>
       <c r="H177">
-        <v>2682</v>
+        <v>2666</v>
       </c>
       <c r="I177">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="J177">
         <v>374</v>
@@ -9260,6 +9263,53 @@
         <v>0</v>
       </c>
       <c r="O177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>7122</v>
+      </c>
+      <c r="C178">
+        <v>7122</v>
+      </c>
+      <c r="D178">
+        <v>4894</v>
+      </c>
+      <c r="E178">
+        <v>2229</v>
+      </c>
+      <c r="F178">
+        <v>745</v>
+      </c>
+      <c r="G178">
+        <v>2042</v>
+      </c>
+      <c r="H178">
+        <v>2601</v>
+      </c>
+      <c r="I178">
+        <v>774</v>
+      </c>
+      <c r="J178">
+        <v>432</v>
+      </c>
+      <c r="K178">
+        <v>136</v>
+      </c>
+      <c r="L178">
+        <v>392</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
         <v>0</v>
       </c>
     </row>
